--- a/report/reliability/comb/Faculdade de Letras - FALE-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Letras - FALE-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7477683679450179</v>
+        <v>0.7145003325764352</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7693283355709523</v>
+        <v>0.7432504255010681</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9005395577864346</v>
+        <v>0.9016465941080507</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.21748484147883557</v>
+        <v>0.18212481142678014</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.3351661872955782</v>
+        <v>2.8948457926428244</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03083158514658704</v>
+        <v>0.03325890984987143</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4702380952380953</v>
+        <v>1.8851148851148851</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7334891998292887</v>
+        <v>0.6160910194719824</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2003881440485648</v>
+        <v>0.14253853824882629</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7214797800340531</v>
+        <v>0.7140025360489144</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7374014569383229</v>
+        <v>0.7312346152113677</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8765857392329209</v>
+        <v>0.8959211629584343</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.20336580801233187</v>
+        <v>0.18482232852684224</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.8080942427967988</v>
+        <v>2.7207172374018307</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03415369076820173</v>
+        <v>0.0339556084145462</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05707070455255121</v>
+        <v>0.08507345147116714</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19030395551398113</v>
+        <v>0.17702543685565958</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7196972474290924</v>
+        <v>0.6896551252855163</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7384087465829481</v>
+        <v>0.7107879505155054</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8769132967288367</v>
+        <v>0.8835881152397703</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.20421089824628094</v>
+        <v>0.1699907727931011</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.82275778313471</v>
+        <v>2.4576705976892996</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.034317063480843846</v>
+        <v>0.036100398927204305</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.057302343747395144</v>
+        <v>0.08499013665529613</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.19851527681805928</v>
+        <v>0.1331168914778983</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7263282568779028</v>
+        <v>0.6909046273332645</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7435085039690797</v>
+        <v>0.7138428491767197</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8798394026762912</v>
+        <v>0.887990049098361</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.20856276019122516</v>
+        <v>0.17210451981185584</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.898764736743742</v>
+        <v>2.494583298453241</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03359700231562273</v>
+        <v>0.03586729225527644</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.057577897071138404</v>
+        <v>0.0861294889093395</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.19851527681805928</v>
+        <v>0.1449430026211993</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.718989263112304</v>
+        <v>0.6980358547891894</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7387664770100479</v>
+        <v>0.7166023532250372</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.877222843495351</v>
+        <v>0.8839819417974785</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2045121590308762</v>
+        <v>0.17404353680107087</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.827992627265004</v>
+        <v>2.5286108102163203</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.034446975835663425</v>
+        <v>0.03566684900376776</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05703046931629039</v>
+        <v>0.07418312171766946</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.19851527681805928</v>
+        <v>0.1331168914778983</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7244795244421043</v>
+        <v>0.6726079344867818</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7545548326682886</v>
+        <v>0.7102548335369744</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8626009731798506</v>
+        <v>0.8793652911870117</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21842969710551252</v>
+        <v>0.16962537520633486</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.0742297388505144</v>
+        <v>2.451308652383024</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.033867229549933785</v>
+        <v>0.038406416359343276</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.054038182001109644</v>
+        <v>0.07433959613841545</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2039971400271001</v>
+        <v>0.13600016601497064</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.722920012270331</v>
+        <v>0.6707433489704554</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7524563778645111</v>
+        <v>0.7085471234652699</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8622484450901144</v>
+        <v>0.8812353503825869</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.21650703104290261</v>
+        <v>0.16846177273094792</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.0396920404302175</v>
+        <v>2.4310863968461747</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03407203875610358</v>
+        <v>0.03870807885729123</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05480756784817439</v>
+        <v>0.07550380354432061</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2039971400271001</v>
+        <v>0.13029518701868847</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7614384098226473</v>
+        <v>0.7178040546597774</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7860839951421879</v>
+        <v>0.7633857451628728</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8894174564111329</v>
+        <v>0.9048292982195824</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2504122067615646</v>
+        <v>0.21188933554522688</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.674732031690149</v>
+        <v>3.2262880598142667</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02889975723219659</v>
+        <v>0.03340347760928537</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05052329900428981</v>
+        <v>0.07495608311561697</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.22298525153187918</v>
+        <v>0.17994702492173623</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7720278822822025</v>
+        <v>0.7238365138854498</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7853252955220548</v>
+        <v>0.7489067017671986</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8894885035051496</v>
+        <v>0.8906926162490694</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2495673418760916</v>
+        <v>0.19907003458135256</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.6582106747594723</v>
+        <v>2.9825833944514484</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.027328697302464875</v>
+        <v>0.031123847407507215</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05117308887009025</v>
+        <v>0.07841115798097491</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.22298525153187918</v>
+        <v>0.17994702492173623</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7398125918830389</v>
+        <v>0.7355903108025941</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7638238974073129</v>
+        <v>0.7492594117460581</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9047758467925702</v>
+        <v>0.8995296146202016</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.22720945704244966</v>
+        <v>0.19936940126441816</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.234128639698214</v>
+        <v>2.988185586400687</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.032258139725341015</v>
+        <v>0.029307335658983226</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06370613433681753</v>
+        <v>0.08117785021763683</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.20226101127907037</v>
+        <v>0.17994702492173623</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7208888563095918</v>
+        <v>0.7039194152637833</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7469445520947354</v>
+        <v>0.7396367475681679</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8964616049576616</v>
+        <v>0.9062177408628529</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.21156579130175687</v>
+        <v>0.19141758694939515</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.95170310806494</v>
+        <v>2.8407877865245927</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03446465457964872</v>
+        <v>0.03483977073224669</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06306127105472624</v>
+        <v>0.09139145112521187</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1881614714701975</v>
+        <v>0.14253853824882629</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.718702406992184</v>
+        <v>0.6843605736971534</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7426687086355493</v>
+        <v>0.7238573018719945</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8707403293258764</v>
+        <v>0.8996842509644045</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2078375800226472</v>
+        <v>0.17928044822699324</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.8860411988673738</v>
+        <v>2.6213161049670473</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.0345770989402264</v>
+        <v>0.03705113352709659</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05676928831366539</v>
+        <v>0.09154795151854794</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1881614714701975</v>
+        <v>0.1331168914778983</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7177959053853594</v>
+        <v>0.6785279345696827</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7424361545136545</v>
+        <v>0.716709118043508</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8710519120279832</v>
+        <v>0.874536581797437</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2076373671123878</v>
+        <v>0.17411913172691823</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.882532496405881</v>
+        <v>2.5299406500262194</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03472157807564802</v>
+        <v>0.03750050886396351</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05669057265153257</v>
+        <v>0.0855940003041403</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1881614714701975</v>
+        <v>0.12896721632782981</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6766073098397201</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7157311725174631</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8749875911139865</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.17342830438368428</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.517796899702032</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.037807148225438535</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.08531700273220393</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.12896721632782981</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>154.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.594890215923759</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6534005961377257</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6352500369804579</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5105182929537826</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.448051948051948</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0355902474832672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.59405909913136</v>
+        <v>0.3301482430465163</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6461156575595477</v>
+        <v>0.46734732959652764</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6275239582871927</v>
+        <v>0.4267858356802239</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.49018194435649903</v>
+        <v>0.3066032820137444</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.883116883116883</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2469468697795294</v>
+        <v>0.20897850190928624</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5494604977362327</v>
+        <v>0.5280084354477941</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.60860126478106</v>
+        <v>0.6194617254895692</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5836266854131587</v>
+        <v>0.6043011726290431</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.46205782240940924</v>
+        <v>0.4249819317215924</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4805194805194803</v>
+        <v>3.448051948051948</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0046999306252695</v>
+        <v>1.0355902474832672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5977414724430122</v>
+        <v>0.5197049083844179</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6435186966391322</v>
+        <v>0.5977828566911241</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6235614333932193</v>
+        <v>0.5741377460021967</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4821113547010564</v>
+        <v>0.391978023622438</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7532467532467533</v>
+        <v>3.883116883116883</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3782232016683076</v>
+        <v>1.2469468697795294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5769153092227726</v>
+        <v>0.5870239173986267</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5235452240320745</v>
+        <v>0.5778960421697197</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5426292733920796</v>
+        <v>0.5970362700647682</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4315117571742639</v>
+        <v>0.5477724499846065</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.0064935064935066</v>
+        <v>0.2922077922077922</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.638972869996636</v>
+        <v>0.45626108618028566</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5942194232272081</v>
+        <v>0.6430441635078951</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5401191987507374</v>
+        <v>0.6232092914340684</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5599794482754276</v>
+        <v>0.6502157371365687</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4436267056336779</v>
+        <v>0.49681437853100235</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.0389610389610389</v>
+        <v>1.0064935064935066</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.725938664316296</v>
+        <v>1.638972869996636</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.27726016891120864</v>
+        <v>0.6567272610735808</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.24784612225501013</v>
+        <v>0.6351433522150605</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.1976551048148393</v>
+        <v>0.6599733238154062</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.1187484148003026</v>
+        <v>0.5050013840241042</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.5194805194805197</v>
+        <v>1.0389610389610389</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4290212346779572</v>
+        <v>1.725938664316296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.2953770043478564</v>
+        <v>0.1384053901721997</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.25512911825979095</v>
+        <v>0.18974452816770454</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2045364545976509</v>
+        <v>0.13201623073026966</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.10027129548851936</v>
+        <v>0.09424679389835557</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.564935064935065</v>
+        <v>0.8506493506493507</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7524038566499531</v>
+        <v>0.35759668983545545</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4710711982122604</v>
+        <v>0.3212100628161437</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.44786098428781257</v>
+        <v>0.3212209731811329</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3489835265271756</v>
+        <v>0.29359578945111586</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.31555493677838153</v>
+        <v>0.14909202388421777</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4805194805194806</v>
+        <v>2.5194805194805197</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5643945945094695</v>
+        <v>1.4290212346779572</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5854367695805865</v>
+        <v>0.3417777415127068</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5827142099912396</v>
+        <v>0.3181506289122958</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5083026110889143</v>
+        <v>0.27217996149592594</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.46341115172308855</v>
+        <v>0.12975239743274847</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.227272727272727</v>
+        <v>2.564935064935065</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.421233595039759</v>
+        <v>1.7524038566499531</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5996920487459454</v>
+        <v>0.4760101096523202</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6148525415962192</v>
+        <v>0.3997054875190438</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6105498245389931</v>
+        <v>0.3035188051436717</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.48633889155528476</v>
+        <v>0.3040526802318004</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1948051948051948</v>
+        <v>1.4805194805194806</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.357996997108552</v>
+        <v>1.5643945945094695</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6066004955654057</v>
+        <v>0.5703262812932774</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6165784386604679</v>
+        <v>0.5241855864224982</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6120827643980349</v>
+        <v>0.44776909620681027</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4980422147296443</v>
+        <v>0.43147656826160685</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.227272727272727</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.421233595039759</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>154.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6020115288966718</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.577120730618842</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5711278481791394</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.47623421854630227</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.1948051948051948</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.357996997108552</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>154.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6134511365804263</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5842059471577493</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5778668260620012</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4939256162134326</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.0454545454545454</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3202342290249134</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.01948051948051948</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.37012987012987014</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.487012987012987</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.025974025974025976</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03896103896103896</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.025974025974025976</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3246753246753247</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5064935064935064</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07792207792207792</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.025974025974025976</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.05844155844155844</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05194805194805195</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.33116883116883117</v>
+        <v>0.37012987012987014</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06493506493506493</v>
+        <v>0.487012987012987</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4675324675324675</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7077922077922078</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.012987012987012988</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.012987012987012988</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.11688311688311688</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.12987012987012986</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.01948051948051948</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7077922077922078</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.012987012987012988</v>
+        <v>0.2922077922077922</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.032467532467532464</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.06493506493506493</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.14935064935064934</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.14935064935064934</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.012987012987012988</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.42207792207792205</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2532467532467532</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.012987012987012988</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.14935064935064934</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.18831168831168832</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.16233766233766234</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.16233766233766234</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.12337662337662338</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.21428571428571427</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.44805194805194803</v>
+        <v>0.14935064935064934</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13636363636363635</v>
+        <v>0.8506493506493507</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.032467532467532464</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2532467532467532</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.12987012987012986</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.21428571428571427</v>
+        <v>0.14935064935064934</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.11688311688311688</v>
+        <v>0.14935064935064934</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05194805194805195</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.461038961038961</v>
+        <v>0.42207792207792205</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.15584415584415584</v>
+        <v>0.2532467532467532</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.17532467532467533</v>
+        <v>0.14935064935064934</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.11688311688311688</v>
+        <v>0.18831168831168832</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.24025974025974026</v>
+        <v>0.16233766233766234</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2727272727272727</v>
+        <v>0.16233766233766234</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.19480519480519481</v>
+        <v>0.12337662337662338</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.19480519480519481</v>
+        <v>0.44805194805194803</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.11038961038961038</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.2987012987012987</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.24675324675324675</v>
+        <v>0.2532467532467532</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.14935064935064934</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.461038961038961</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.17532467532467533</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.24025974025974026</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.11038961038961038</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.14935064935064934</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8510677628508182</v>
+        <v>0.8829472895684951</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8576123523574989</v>
+        <v>0.9850238933451828</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8767756373134024</v>
+        <v>0.9798599126061206</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.600921118788511</v>
+        <v>0.9563782480547521</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.023081120847956</v>
+        <v>65.77302873496392</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01975919508167887</v>
+        <v>0.0030342369348620494</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6412337662337664</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.978078901292244</v>
+        <v>1.2595147128428108</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5489805576849445</v>
+        <v>0.9588724696297738</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8096271661123754</v>
+        <v>0.9842749468285463</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8177847019187767</v>
+        <v>0.9849427474081742</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7824660403094199</v>
+        <v>0.9703322102208934</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5993596920347958</v>
+        <v>0.9703322102208936</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.488013413419578</v>
+        <v>65.41317822767171</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.025927314006203066</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.024620223205445803</v>
-      </c>
+        <v>0.002478243688745921</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5649869255970562</v>
+        <v>0.9703322102208934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8085229757686845</v>
+        <v>0.6343375192092606</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8178230812306679</v>
+        <v>0.969034999358255</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7770693565408183</v>
+        <v>0.9399300643135892</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5994215420730197</v>
+        <v>0.9399300643135893</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.489169576230324</v>
+        <v>31.294525408530586</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.025667160919091592</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.022344299604781875</v>
-      </c>
+        <v>0.011226033113564963</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5329741897728328</v>
+        <v>0.9399300643135892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8137564821288406</v>
+        <v>0.6626269757226342</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8262384490136421</v>
+        <v>0.9790044880369373</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7888366711285962</v>
+        <v>0.9588724696297738</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6131534574836338</v>
+        <v>0.9588724696297739</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.755013087322811</v>
+        <v>46.629226748997354</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.026513979561181213</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.022060839438345248</v>
-      </c>
+        <v>0.009180629823361144</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5649869255970562</v>
+        <v>0.9588724696297738</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8110967589788667</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8130294035391494</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7781323459636148</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5917497835625943</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.348434560989315</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.026183485170495704</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.027760841026311437</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5329741897728328</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>154.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9660039834452816</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9806316706014271</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9636541927948995</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9562708217156917</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.2922077922077922</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.45626108618028566</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>154.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8243738205406912</v>
+        <v>0.9927640926833099</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8384717863115558</v>
+        <v>0.9909163680866303</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7855063595328549</v>
+        <v>0.9875021934466629</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7030930126009631</v>
+        <v>0.9776969520066229</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.448051948051948</v>
+        <v>1.0064935064935066</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0355902474832672</v>
+        <v>1.638972869996636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>154.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8429347103749039</v>
+        <v>0.9911596124130485</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8384163699489959</v>
+        <v>0.9845083694896543</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7885315063659507</v>
+        <v>0.9749809955575744</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6978583312288367</v>
+        <v>0.9705350786467792</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.883116883116883</v>
+        <v>1.0389610389610389</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2469468697795294</v>
+        <v>1.725938664316296</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>154.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8167555233883648</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.826112856080807</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.767355118867832</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6964352373214975</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4805194805194803</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0046999306252695</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>154.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8611907698863197</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8452901078365345</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7938228789442112</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7075451325625433</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7532467532467533</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3782232016683076</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7077922077922078</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.2922077922077922</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7077922077922078</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.01948051948051948</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.045454545454545456</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.01948051948051948</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.006493506493506494</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.37012987012987014</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.487012987012987</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.07142857142857142</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3246753246753247</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5064935064935064</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.05844155844155844</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.33116883116883117</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4675324675324675</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8645174059953722</v>
+        <v>0.7627055901412263</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8746741039343653</v>
+        <v>0.8808008496854522</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7772629306695966</v>
+        <v>0.8453570342524954</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7772629306695966</v>
+        <v>0.7112419721813357</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>6.9791968890155545</v>
+        <v>7.389321546010677</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.020756745909522072</v>
+        <v>0.016157876722948276</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.542207792207792</v>
+        <v>1.9783549783549783</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.5004915302517323</v>
+        <v>1.0884455044172698</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7772629306695967</v>
+        <v>0.7411655720605018</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8645174059953722</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8746741039343653</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7772629306695966</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7772629306695966</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.6041376633930902</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7772629306695966</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7772629306695966</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>6.9791968890155545</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.020756745909522072</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.7772629306695966</v>
+        <v>0.7772629306695967</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.6041376633930902</v>
+        <v>0.38849689972204415</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7772629306695966</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.6041376633930902</v>
-      </c>
+        <v>0.761837923532755</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6152974138139088</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6152974138139087</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.1988213020032688</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.031363913015674316</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7772629306695966</v>
+        <v>0.6152974138139087</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5175058352784261</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8513441615818347</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7411655720605017</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7411655720605017</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>5.72694736137456</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.026237155086211158</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7411655720605018</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>154.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9300618283217335</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9426725122410213</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8310838086687428</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7772629306695967</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.5194805194805197</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4290212346779572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>154.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9540637290450051</v>
+        <v>0.7640828384918074</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9426725122410212</v>
+        <v>0.8741169494444214</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8310838086687428</v>
+        <v>0.77045660084927</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7772629306695967</v>
+        <v>0.7122302454724107</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8506493506493507</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.35759668983545545</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>154.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9359335966753891</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9341971647322284</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9012273690568233</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8166315456583583</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.5194805194805197</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4290212346779572</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>154.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9442081682658222</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8875070655546793</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8069429742289338</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7777706646878233</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.564935064935065</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7524038566499531</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.14935064935064934</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8506493506493507</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
         <v>0.14935064935064934</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="C26" t="n" s="340">
+        <v>0.14935064935064934</v>
+      </c>
+      <c r="D26" t="n" s="341">
         <v>0.012987012987012988</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.42207792207792205</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2532467532467532</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.012987012987012988</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.14935064935064934</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.18831168831168832</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.16233766233766234</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.16233766233766234</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.12337662337662338</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.21428571428571427</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9302561052012075</v>
+        <v>0.7519256371243819</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9304539478289009</v>
+        <v>0.8903258044861387</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8699522063029902</v>
+        <v>0.8483166539243598</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8699522063029905</v>
+        <v>0.7301652350036983</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>13.37896140444858</v>
+        <v>8.117915069398556</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01122190584666932</v>
+        <v>0.015099243047045597</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.1201298701298703</v>
+        <v>2.761904761904762</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2948555762770106</v>
+        <v>0.7714158913552525</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8699522063029905</v>
+        <v>0.728938428243715</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8699522063029904</v>
+        <v>0.8678365353841091</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8699522063029904</v>
+        <v>0.8762705725573152</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.7568168412514404</v>
+        <v>0.7797878663296005</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8699522063029904</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8699522063029904</v>
-      </c>
+        <v>0.7797878663296007</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>7.082151681039901</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.02041087142113182</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8699522063029904</v>
+        <v>0.7797878663296006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.7568168412514404</v>
+        <v>0.3637074527010882</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8699522063029904</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7568168412514404</v>
-      </c>
+        <v>0.8107763242765949</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6817694104377794</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6817694104377794</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.2847509497793235</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.025086318552879967</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8699522063029904</v>
+        <v>0.6817694104377795</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.4407684098185698</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.8432208068672324</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.728938428243715</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.728938428243715</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>5.378397413699889</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.0249447319885094</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.728938428243715</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>154.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9678831073548526</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9669416234455394</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.9018783309167682</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8699522063029906</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.1948051948051948</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.357996997108552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>154.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9659867705111372</v>
+        <v>0.7838358365006789</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9669416234455392</v>
+        <v>0.887334219402242</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.9018783309167682</v>
+        <v>0.7892162814174376</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8699522063029906</v>
+        <v>0.7450081105213182</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.0454545454545454</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3202342290249134</v>
+        <v>0.20897850190928624</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>154.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9334682590036902</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.9234128883517536</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8750142778777177</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.8046074516709236</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.448051948051948</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0355902474832672</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>154.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9493204871358506</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.906050899095647</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8380519858212965</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7939915590252357</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.883116883116883</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2469468697795294</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.17532467532467533</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.24025974025974026</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.11038961038961038</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.2987012987012987</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.24675324675324675</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.14935064935064934</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.01948051948051948</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.37012987012987014</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.487012987012987</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.032467532467532464</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.4155844155844156</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9842749468285463</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9849427474081742</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9703322102208936</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>65.41317822767171</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002478243688745921</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.0227272727272727</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6699388555701196</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9703322102208934</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6436740137492025</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6456829400572666</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.47675906857775874</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.47675906857775896</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.8223309376117118</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.057086849961547156</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.853896103896104</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2832828162648593</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.47675906857775907</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9415445981921641</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9703322102208934</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.47675906857775907</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.47675906857775907</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2272992094711319</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.47675906857775907</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.47675906857775907</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.47675906857775907</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9415445981921641</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9415445981921641</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9703322102208934</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2272992094711319</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.47675906857775907</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2272992094711319</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.47675906857775907</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>154.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9921640956479991</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9925553410820209</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9777210257565953</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.0064935064935066</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.638972869996636</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8735333205963064</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8592901339413129</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5933204353673026</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4767590685777591</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4805194805194806</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5643945945094695</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>154.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9929366038435066</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9925553410820209</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9777210257565954</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9703322102208934</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.0389610389610389</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.725938664316296</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8443473556022852</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8592901339413129</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5933204353673027</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4767590685777589</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.227272727272727</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.421233595039759</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7077922077922078</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.44805194805194803</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.032467532467532464</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2532467532467532</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.11688311688311688</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.12987012987012986</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.01948051948051948</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7077922077922078</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="D24" t="n" s="571">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.461038961038961</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6436740137492025</v>
+        <v>0.9302561052012075</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6456829400572666</v>
+        <v>0.9304539478289009</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.47675906857775874</v>
+        <v>0.8699522063029902</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.47675906857775896</v>
+        <v>0.8699522063029905</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.8223309376117118</v>
+        <v>13.37896140444858</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.057086849961547156</v>
+        <v>0.01122190584666932</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.853896103896104</v>
+        <v>2.1201298701298703</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2832828162648593</v>
+        <v>1.2948555762770106</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029905</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029904</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029904</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2272992094711319</v>
+        <v>0.7568168412514404</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029904</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029904</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029904</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2272992094711319</v>
+        <v>0.7568168412514404</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029904</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2272992094711319</v>
+        <v>0.7568168412514404</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.47675906857775907</v>
+        <v>0.8699522063029904</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>154.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8735333205963064</v>
+        <v>0.9678831073548526</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8592901339413129</v>
+        <v>0.9669416234455394</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5933204353673026</v>
+        <v>0.9018783309167682</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4767590685777591</v>
+        <v>0.8699522063029906</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4805194805194806</v>
+        <v>2.1948051948051948</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5643945945094695</v>
+        <v>1.357996997108552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>154.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8443473556022852</v>
+        <v>0.9659867705111372</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8592901339413129</v>
+        <v>0.9669416234455392</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5933204353673027</v>
+        <v>0.9018783309167682</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4767590685777589</v>
+        <v>0.8699522063029906</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.227272727272727</v>
+        <v>2.0454545454545454</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.421233595039759</v>
+        <v>1.3202342290249134</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.44805194805194803</v>
+        <v>0.17532467532467533</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.13636363636363635</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.032467532467532464</v>
+        <v>0.24025974025974026</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.2532467532467532</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.12987012987012986</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.21428571428571427</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.11688311688311688</v>
+        <v>0.11038961038961038</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05194805194805195</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.461038961038961</v>
+        <v>0.24675324675324675</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.15584415584415584</v>
+        <v>0.14935064935064934</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8071663081261677</v>
+        <v>0.7879472054400886</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8175102828775415</v>
+        <v>0.8187742909047843</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9131638511809512</v>
+        <v>0.9194560524734379</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3093808570697231</v>
+        <v>0.3111989832393811</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.47976080936635</v>
+        <v>4.517980892405289</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.023904848934090086</v>
+        <v>0.024424112911436077</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4558441558441557</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8389993271622418</v>
+        <v>0.7554470730051476</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.24683074008484926</v>
+        <v>0.2230977698625444</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7888642825610759</v>
+        <v>0.7743204009269297</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7947004099003248</v>
+        <v>0.7956215873950495</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8905143844112857</v>
+        <v>0.9008313732875918</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.30074984715410413</v>
+        <v>0.301940548070048</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.8709303292543766</v>
+        <v>3.8928846606364997</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.026233019408215343</v>
+        <v>0.026728496202245877</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04156604629779152</v>
+        <v>0.05228996977796789</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.242850696326508</v>
+        <v>0.2360681069220678</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7895186730654831</v>
+        <v>0.7514063682420624</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7965371534254875</v>
+        <v>0.7917688777117579</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8911869565481416</v>
+        <v>0.8966116934057448</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3031306134515854</v>
+        <v>0.29700440053243454</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.9149022381035965</v>
+        <v>3.8023560984114506</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.026008092395184385</v>
+        <v>0.02847629567677896</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04108774463184486</v>
+        <v>0.05201240501617097</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.242850696326508</v>
+        <v>0.22414536264558277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7926936014906587</v>
+        <v>0.7531433212341946</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7998310590067816</v>
+        <v>0.7919100538776336</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.893483557232998</v>
+        <v>0.8994702275557407</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.30746750310920024</v>
+        <v>0.29718326201997985</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.9957800397908874</v>
+        <v>3.8056142001783893</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.025812743289681132</v>
+        <v>0.028291496955568242</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04144765240629469</v>
+        <v>0.05291532295849126</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.24923165446011997</v>
+        <v>0.22420162181091535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7878986380142617</v>
+        <v>0.7918150074141903</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7951537414571866</v>
+        <v>0.813638564160477</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8908493892989857</v>
+        <v>0.9150288714207371</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3013349859454209</v>
+        <v>0.326645527715509</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.881709859450509</v>
+        <v>4.365917017623247</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.026174734326673183</v>
+        <v>0.025069183430609574</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.041811850419726286</v>
+        <v>0.06268156652480533</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.24923165446011997</v>
+        <v>0.24794791185386733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7848076633910329</v>
+        <v>0.7727430681861951</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7967778915196301</v>
+        <v>0.7993071182089598</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.882836432810207</v>
+        <v>0.9037124987926138</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3034446305310674</v>
+        <v>0.3067717944177329</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.9207244599403137</v>
+        <v>3.982737758687384</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.026727859441928563</v>
+        <v>0.025881755543149386</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.042316644029009864</v>
+        <v>0.06515472443452636</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.23607399184815475</v>
+        <v>0.22420162181091535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7830194065398632</v>
+        <v>0.7772894569793276</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7958877939970637</v>
+        <v>0.8034761773302429</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8832690870991321</v>
+        <v>0.9086310042452952</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.30228588437326237</v>
+        <v>0.31237039088527646</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.8992660438230415</v>
+        <v>4.088441627152864</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02700803212611867</v>
+        <v>0.02511506406380847</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.042892215849958205</v>
+        <v>0.06512355699951258</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.22420162181091535</v>
+        <v>0.2230415106972118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7898648509446011</v>
+        <v>0.786163898383472</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8070785442274273</v>
+        <v>0.821209960939709</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8728974688450213</v>
+        <v>0.9269826406199684</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.31732623324610426</v>
+        <v>0.3379019451559146</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.183456635216664</v>
+        <v>4.59315275759173</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.025991646249595532</v>
+        <v>0.024679153663498415</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03661708002611378</v>
+        <v>0.07194630695691254</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.25439194595996495</v>
+        <v>0.2360681069220678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7906907549117148</v>
+        <v>0.7659418788425572</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8061127230062017</v>
+        <v>0.8080124512739937</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8729387644951034</v>
+        <v>0.9198705960350612</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.31598654962247025</v>
+        <v>0.31862941246487775</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.157636001211089</v>
+        <v>4.20867111766265</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.025879834615980004</v>
+        <v>0.026979874401360848</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03714640630037491</v>
+        <v>0.07597705851722959</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.25774663427626415</v>
+        <v>0.21262313140547476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8070388280228595</v>
+        <v>0.7591739064551976</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8178779864212671</v>
+        <v>0.800205082928017</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9192169994097867</v>
+        <v>0.8916410580871819</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3328799102069242</v>
+        <v>0.3079655194968271</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.490824422318894</v>
+        <v>4.00513233597287</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.02436639594434985</v>
+        <v>0.027315132759085238</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.0470120316796211</v>
+        <v>0.06860542058391349</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2531656330785375</v>
+        <v>0.2230415106972118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7873397799507931</v>
+        <v>0.7559347799803745</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8011303121051294</v>
+        <v>0.79840338738937</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9110487017317205</v>
+        <v>0.8921087940304393</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.30920241305709184</v>
+        <v>0.3055770316352111</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.028418410998034</v>
+        <v>3.960400807584161</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.026661992790689423</v>
+        <v>0.027860203956133894</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.0508529923636926</v>
+        <v>0.06932495730480161</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.22420750673700235</v>
+        <v>0.20077797063724062</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6104219652583676</v>
+        <v>0.6812884803409184</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.665685470700561</v>
+        <v>0.6705689121859973</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6415910547321696</v>
+        <v>0.6870345548632752</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.523753166108626</v>
+        <v>0.646849417896755</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.448051948051948</v>
+        <v>0.2922077922077922</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0355902474832672</v>
+        <v>0.45626108618028566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6016566501600851</v>
+        <v>0.7213062510778709</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6517532880428236</v>
+        <v>0.6993928722113806</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6268499763722691</v>
+        <v>0.7230648874176039</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4933470403663152</v>
+        <v>0.5886535136797135</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.883116883116883</v>
+        <v>1.0064935064935066</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2469468697795294</v>
+        <v>1.638972869996636</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5711980386905995</v>
+        <v>0.7226289138911196</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6263739221889533</v>
+        <v>0.6983484349599004</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.5960321780836455</v>
+        <v>0.718921261827559</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.4819199745168625</v>
+        <v>0.5815677241892766</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4805194805194803</v>
+        <v>1.0389610389610389</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0046999306252695</v>
+        <v>1.725938664316296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6213157021088869</v>
+        <v>0.3850222816558021</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6622612536619639</v>
+        <v>0.5263075544566139</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6368193950695804</v>
+        <v>0.47964038899142025</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5038454932551778</v>
+        <v>0.3610863351776273</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7532467532467533</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3782232016683076</v>
+        <v>0.20897850190928624</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6432049018704123</v>
+        <v>0.546856803125752</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6499156682337643</v>
+        <v>0.6423575083457925</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6414188694729936</v>
+        <v>0.6195407184119971</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.532213025878392</v>
+        <v>0.4396111040867561</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.1948051948051948</v>
+        <v>3.448051948051948</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.357996997108552</v>
+        <v>1.0355902474832672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6556099899530141</v>
+        <v>0.5282071275390341</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6566966207117837</v>
+        <v>0.6096652681829814</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.647980071137867</v>
+        <v>0.5780546424787011</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5507544253256926</v>
+        <v>0.3932236405185857</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.0454545454545454</v>
+        <v>3.883116883116883</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3202342290249134</v>
+        <v>1.2469468697795294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.634746155435867</v>
+        <v>0.5302093944698605</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5686808889895171</v>
+        <v>0.4605772407131669</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5855998560656194</v>
+        <v>0.3538622673429935</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4943085215082998</v>
+        <v>0.3561210038373366</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.0064935064935066</v>
+        <v>1.4805194805194806</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.638972869996636</v>
+        <v>1.5643945945094695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6421248373635107</v>
+        <v>0.6245776256037961</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5765206828272385</v>
+        <v>0.5731165656910655</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5937192525883791</v>
+        <v>0.488948158818973</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4947313741689414</v>
+        <v>0.487843347454706</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.0389610389610389</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.725938664316296</v>
+        <v>1.421233595039759</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5092586650991608</v>
+        <v>0.6599417162091497</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.47766117460308727</v>
+        <v>0.6353869136261411</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3730453347601793</v>
+        <v>0.6244322149599183</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.35118927563389696</v>
+        <v>0.538527095281964</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4805194805194806</v>
+        <v>2.1948051948051948</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5643945945094695</v>
+        <v>1.357996997108552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.6284031196688326</v>
+        <v>0.678256380312424</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6162212741468829</v>
+        <v>0.6493341625930179</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5355514875503423</v>
+        <v>0.6380659687608284</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.5081923970248353</v>
+        <v>0.5652337069902019</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.227272727272727</v>
+        <v>2.0454545454545454</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.421233595039759</v>
+        <v>1.3202342290249134</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.045454545454545456</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.01948051948051948</v>
+        <v>0.2922077922077922</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.006493506493506494</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.37012987012987014</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.487012987012987</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.045454545454545456</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.032467532467532464</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2857142857142857</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.22077922077922077</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4155844155844156</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.025974025974025976</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.03896103896103896</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.025974025974025976</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3246753246753247</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5064935064935064</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.07792207792207792</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.025974025974025976</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.05844155844155844</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.05194805194805195</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.33116883116883117</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.06493506493506493</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4675324675324675</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.17532467532467533</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.11688311688311688</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.24025974025974026</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2727272727272727</v>
+        <v>0.37012987012987014</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.19480519480519481</v>
+        <v>0.487012987012987</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.19480519480519481</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.11038961038961038</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.2987012987012987</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.24675324675324675</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.14935064935064934</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7077922077922078</v>
+        <v>0.44805194805194803</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.012987012987012988</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.012987012987012988</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.11688311688311688</v>
+        <v>0.2532467532467532</v>
       </c>
       <c r="F45" t="n" s="801">
         <v>0.12987012987012986</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.01948051948051948</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7077922077922078</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.012987012987012988</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.032467532467532464</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.09090909090909091</v>
+        <v>0.461038961038961</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.09090909090909091</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.06493506493506493</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.44805194805194803</v>
+        <v>0.17532467532467533</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.13636363636363635</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.032467532467532464</v>
+        <v>0.24025974025974026</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.2532467532467532</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.12987012987012986</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.21428571428571427</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.11688311688311688</v>
+        <v>0.11038961038961038</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05194805194805195</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.461038961038961</v>
+        <v>0.24675324675324675</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.15584415584415584</v>
+        <v>0.14935064935064934</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
